--- a/GATEWAY/A1#111BCSSRL00000/BCS/WINDEG/7.11.0.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111BCSSRL00000/BCS/WINDEG/7.11.0.0/report-checklist.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\vm-fs01\Shares\Rep-Software\A-FSE-2\Test Case\0 AAA VALIDAZIONE\3-Lettera Dimissione\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\vm-fs01.bcs.it\Shares\Rep-Software\A-FSE-2\Test Case\0 AAA VALIDAZIONE\3-Lettera Dimissione\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAD815B8-8DF1-401D-B05A-1AB85B9DEDCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{667DB1AF-6F1B-4FFD-82BB-B0E533593CF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2635,10 +2635,10 @@
   <dimension ref="A1:O873"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="E19" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="K14" sqref="K14"/>
+      <selection pane="bottomRight" activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3205,9 +3205,7 @@
       <c r="E19" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="F19" s="17">
-        <v>44956</v>
-      </c>
+      <c r="F19" s="17"/>
       <c r="G19" s="18"/>
       <c r="H19" s="18"/>
       <c r="I19" s="18"/>

--- a/GATEWAY/A1#111BCSSRL00000/BCS/WINDEG/7.11.0.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111BCSSRL00000/BCS/WINDEG/7.11.0.0/report-checklist.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\vm-fs01.bcs.it\Shares\Rep-Software\A-FSE-2\Test Case\0 AAA VALIDAZIONE\3-Lettera Dimissione\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\vm-fs01.bcs.it\shares\Rep-Software\A-FSE-2\Test Case\0 AAA VALIDAZIONE\3-Lettera Dimissione\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{667DB1AF-6F1B-4FFD-82BB-B0E533593CF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3F9A0C7-0DA6-4A81-BC39-BECB68C93C95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -97,7 +97,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="136">
   <si>
     <t>PREREQUISITI</t>
   </si>
@@ -545,45 +545,6 @@
     <t>NO</t>
   </si>
   <si>
-    <t>Mon, 30 Jan 2023 15:04:57 GMT</t>
-  </si>
-  <si>
-    <t>28e158b87c161a87</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.30.4.4.dcaea09fb7a4716ce87545bca473eedf9785a29cca152c59d097007713d58949.9bf19c0df7^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>Mon, 30 Jan 2023 15:35:35 GMT</t>
-  </si>
-  <si>
-    <t>c5050294aba32336</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.30.4.4.c7d472995bb7defa41a9f04dcaa6c797b982a3a8b02ca83f8c753d5c658e95fd.b0f8b536d5^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>Il programma gestisce solo i campi obbligatori, nessun campo opzionale è stato inserito</t>
-  </si>
-  <si>
-    <t>4813a3296eae2214</t>
-  </si>
-  <si>
-    <t>Mon, 30 Jan 2023 15:43:12 GMT</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.30.4.4.09955b66b453025b4db20c0164fa8caf6b326afc787ea211404c9c0d8e45f6ef.c10d9a5c37^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>Mon, 30 Jan 2023 15:45:04 GMT</t>
-  </si>
-  <si>
-    <t>687f2d192aa8d2da</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.30.4.4.84af96f7ca63b9f3902cb781af6bf7310f7e10484c4c13862a7b54f80dab2f82.16a031d090^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>Mon, 30 Jan 2023 15:52:55 GMT</t>
   </si>
   <si>
@@ -702,6 +663,24 @@
   </si>
   <si>
     <t>Non è possibile da programma inserire un confidentialityCode pari a R, ma solo pari a N o a V.</t>
+  </si>
+  <si>
+    <t>Mon, 20 Mar 2023 08:29:16 GMT</t>
+  </si>
+  <si>
+    <t>269b745d828e7ba3</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.30.4.4.ace789371ccf15c91b327ddc13bf6cbff9aeb729804d737d627ed2b8318ccbc4.a37626e890^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>Il programma non gestisce le informazioni che andrebbero inserite nei tag opzionali</t>
+  </si>
+  <si>
+    <t>Il programma non gestisce le informaizoni che andrebbero inserite nelle sezioni Inquadramento clinico iniziale, riscontri ed accertamenti significativi, terapia farmacologica alla dimissione, istruzioni di follow-up</t>
+  </si>
+  <si>
+    <t>Il programma non gestisce le nformaizoni che andrebbero inserite nelle sezioni Inquadramento clinico iniziale, riscontri ed accertamenti significativi, terapia farmacologica alla dimissione, istruzioni di follow-up, retapia farmacologica effettuata durante il ricovero, procedure eseguite durante il ricovero</t>
   </si>
 </sst>
 </file>
@@ -2634,11 +2613,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O873"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="E19" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="1" ySplit="9" topLeftCell="E10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="H20" sqref="H20"/>
+      <selection pane="bottomRight" activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2676,7 +2655,7 @@
       </c>
       <c r="B2" s="43"/>
       <c r="C2" s="44" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="D2" s="43"/>
       <c r="F2" s="7"/>
@@ -2696,7 +2675,7 @@
       </c>
       <c r="B3" s="46"/>
       <c r="C3" s="51" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="D3" s="43"/>
       <c r="F3" s="7"/>
@@ -2714,7 +2693,7 @@
       <c r="A4" s="47"/>
       <c r="B4" s="48"/>
       <c r="C4" s="51" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="D4" s="43"/>
       <c r="E4" s="2"/>
@@ -2853,22 +2832,24 @@
         <v>30</v>
       </c>
       <c r="F10" s="17">
-        <v>44956</v>
+        <v>45005</v>
       </c>
       <c r="G10" s="18" t="s">
-        <v>90</v>
+        <v>130</v>
       </c>
       <c r="H10" s="18" t="s">
-        <v>91</v>
+        <v>131</v>
       </c>
       <c r="I10" s="18" t="s">
-        <v>92</v>
+        <v>132</v>
       </c>
       <c r="J10" s="19"/>
       <c r="K10" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="L10" s="19"/>
+      <c r="L10" s="19" t="s">
+        <v>87</v>
+      </c>
       <c r="M10" s="19"/>
       <c r="N10" s="20"/>
       <c r="O10" s="21"/>
@@ -2889,28 +2870,20 @@
       <c r="E11" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="17">
-        <v>44956</v>
-      </c>
-      <c r="G11" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="H11" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="I11" s="18" t="s">
-        <v>95</v>
-      </c>
+      <c r="F11" s="17"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
       <c r="J11" s="19"/>
       <c r="K11" s="19" t="s">
-        <v>41</v>
+        <v>89</v>
       </c>
       <c r="L11" s="19"/>
-      <c r="M11" s="19"/>
+      <c r="M11" s="19" t="s">
+        <v>134</v>
+      </c>
       <c r="N11" s="20"/>
-      <c r="O11" s="21" t="s">
-        <v>96</v>
-      </c>
+      <c r="O11" s="21"/>
     </row>
     <row r="12" spans="1:15" ht="130.19999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="14">
@@ -2928,28 +2901,20 @@
       <c r="E12" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="F12" s="17">
-        <v>44956</v>
-      </c>
-      <c r="G12" s="37" t="s">
-        <v>98</v>
-      </c>
-      <c r="H12" s="37" t="s">
-        <v>97</v>
-      </c>
-      <c r="I12" s="37" t="s">
-        <v>99</v>
-      </c>
+      <c r="F12" s="17"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="37"/>
+      <c r="I12" s="37"/>
       <c r="J12" s="19"/>
       <c r="K12" s="19" t="s">
-        <v>41</v>
+        <v>89</v>
       </c>
       <c r="L12" s="19"/>
-      <c r="M12" s="19"/>
+      <c r="M12" s="19" t="s">
+        <v>135</v>
+      </c>
       <c r="N12" s="20"/>
-      <c r="O12" s="21" t="s">
-        <v>96</v>
-      </c>
+      <c r="O12" s="21"/>
     </row>
     <row r="13" spans="1:15" ht="130.19999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="14">
@@ -2967,28 +2932,20 @@
       <c r="E13" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="F13" s="17">
-        <v>44956</v>
-      </c>
-      <c r="G13" s="37" t="s">
-        <v>100</v>
-      </c>
-      <c r="H13" s="37" t="s">
-        <v>101</v>
-      </c>
-      <c r="I13" s="37" t="s">
-        <v>102</v>
-      </c>
+      <c r="F13" s="17"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="37"/>
+      <c r="I13" s="37"/>
       <c r="J13" s="19"/>
       <c r="K13" s="19" t="s">
-        <v>41</v>
+        <v>89</v>
       </c>
       <c r="L13" s="19"/>
-      <c r="M13" s="19"/>
+      <c r="M13" s="19" t="s">
+        <v>133</v>
+      </c>
       <c r="N13" s="20"/>
-      <c r="O13" s="21" t="s">
-        <v>96</v>
-      </c>
+      <c r="O13" s="21"/>
     </row>
     <row r="14" spans="1:15" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="14">
@@ -3010,21 +2967,23 @@
         <v>44957</v>
       </c>
       <c r="G14" s="18" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="H14" s="18" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="I14" s="18" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="J14" s="19" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="K14" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="L14" s="19"/>
+      <c r="L14" s="19" t="s">
+        <v>87</v>
+      </c>
       <c r="M14" s="19"/>
       <c r="N14" s="20" t="s">
         <v>41</v>
@@ -3051,21 +3010,23 @@
         <v>44957</v>
       </c>
       <c r="G15" s="18" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="H15" s="18" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="I15" s="18" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="J15" s="19" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="K15" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="L15" s="19"/>
+      <c r="L15" s="19" t="s">
+        <v>87</v>
+      </c>
       <c r="M15" s="19"/>
       <c r="N15" s="20" t="s">
         <v>41</v>
@@ -3093,12 +3054,14 @@
       <c r="H16" s="18"/>
       <c r="I16" s="18"/>
       <c r="J16" s="19" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="K16" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="L16" s="19"/>
+      <c r="L16" s="19" t="s">
+        <v>87</v>
+      </c>
       <c r="M16" s="19"/>
       <c r="N16" s="20" t="s">
         <v>41</v>
@@ -3125,21 +3088,23 @@
         <v>44956</v>
       </c>
       <c r="G17" s="37" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="H17" s="37" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="I17" s="37" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="J17" s="19" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="K17" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="L17" s="19"/>
+      <c r="L17" s="19" t="s">
+        <v>87</v>
+      </c>
       <c r="M17" s="19"/>
       <c r="N17" s="20" t="s">
         <v>41</v>
@@ -3166,27 +3131,29 @@
         <v>44956</v>
       </c>
       <c r="G18" s="37" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="H18" s="37" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="I18" s="37" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="J18" s="19" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="K18" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="L18" s="19"/>
+      <c r="L18" s="19" t="s">
+        <v>87</v>
+      </c>
       <c r="M18" s="19"/>
       <c r="N18" s="20" t="s">
         <v>41</v>
       </c>
       <c r="O18" s="38" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
@@ -3215,7 +3182,7 @@
       </c>
       <c r="L19" s="19"/>
       <c r="M19" s="39" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="N19" s="20" t="s">
         <v>41</v>
@@ -3242,27 +3209,29 @@
         <v>44956</v>
       </c>
       <c r="G20" s="37" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="H20" s="37" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="I20" s="37" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="J20" s="19" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="K20" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="L20" s="19"/>
+      <c r="L20" s="19" t="s">
+        <v>87</v>
+      </c>
       <c r="M20" s="19"/>
       <c r="N20" s="20" t="s">
         <v>41</v>
       </c>
       <c r="O20" s="21" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
@@ -3285,27 +3254,29 @@
         <v>44956</v>
       </c>
       <c r="G21" s="37" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="H21" s="37" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="I21" s="37" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="J21" s="19" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="K21" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="L21" s="19"/>
+      <c r="L21" s="19" t="s">
+        <v>87</v>
+      </c>
       <c r="M21" s="19"/>
       <c r="N21" s="20" t="s">
         <v>41</v>
       </c>
       <c r="O21" s="38" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
@@ -3328,27 +3299,29 @@
         <v>44956</v>
       </c>
       <c r="G22" s="37" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="H22" s="37" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="I22" s="37" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="J22" s="19" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="K22" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="L22" s="19"/>
+      <c r="L22" s="19" t="s">
+        <v>87</v>
+      </c>
       <c r="M22" s="19"/>
       <c r="N22" s="20" t="s">
         <v>41</v>
       </c>
       <c r="O22" s="38" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
     </row>
     <row r="23" spans="1:15" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
@@ -3371,27 +3344,29 @@
         <v>44956</v>
       </c>
       <c r="G23" s="37" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="H23" s="37" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="I23" s="37" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="J23" s="19" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="K23" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="L23" s="19"/>
+      <c r="L23" s="19" t="s">
+        <v>87</v>
+      </c>
       <c r="M23" s="19"/>
       <c r="N23" s="20" t="s">
         <v>41</v>
       </c>
       <c r="O23" s="38" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
     </row>
     <row r="24" spans="1:15" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
@@ -3414,27 +3389,29 @@
         <v>44956</v>
       </c>
       <c r="G24" s="37" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="H24" s="37" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="I24" s="37" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="J24" s="19" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="K24" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="L24" s="19"/>
+      <c r="L24" s="19" t="s">
+        <v>87</v>
+      </c>
       <c r="M24" s="19"/>
       <c r="N24" s="20" t="s">
         <v>41</v>
       </c>
       <c r="O24" s="21" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
     </row>
     <row r="25" spans="1:15" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
@@ -3463,7 +3440,7 @@
       </c>
       <c r="L25" s="19"/>
       <c r="M25" s="19" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="N25" s="20" t="s">
         <v>41</v>
@@ -3496,7 +3473,7 @@
       </c>
       <c r="L26" s="19"/>
       <c r="M26" s="19" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="N26" s="20" t="s">
         <v>41</v>
@@ -3529,7 +3506,7 @@
       </c>
       <c r="L27" s="19"/>
       <c r="M27" s="19" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="N27" s="20" t="s">
         <v>41</v>
@@ -3562,7 +3539,7 @@
       </c>
       <c r="L28" s="19"/>
       <c r="M28" s="19" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="N28" s="20" t="s">
         <v>41</v>
@@ -13736,7 +13713,7 @@
           <x14:formula1>
             <xm:f>Sheet1!$A$2:$A$3</xm:f>
           </x14:formula1>
-          <xm:sqref>L10:L28 M11</xm:sqref>
+          <xm:sqref>L10:L28</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/GATEWAY/A1#111BCSSRL00000/BCS/WINDEG/7.11.0.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111BCSSRL00000/BCS/WINDEG/7.11.0.0/report-checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\vm-fs01.bcs.it\shares\Rep-Software\A-FSE-2\Test Case\0 AAA VALIDAZIONE\3-Lettera Dimissione\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3F9A0C7-0DA6-4A81-BC39-BECB68C93C95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED1A0976-2B2F-4398-A5F2-EEA8148AA45F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -97,7 +97,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="141">
   <si>
     <t>PREREQUISITI</t>
   </si>
@@ -185,9 +185,6 @@
   </si>
   <si>
     <t>IDENTIFICATIVI SOFTWARE</t>
-  </si>
-  <si>
-    <t>subject_application_version:</t>
   </si>
   <si>
     <t>ID</t>
@@ -566,15 +563,6 @@
     <t>Non applicabile da programma dove i caratteri del codice fiscale vengono forzati in maiucolo. Modificato il dato da base dati per eseguire il test.</t>
   </si>
   <si>
-    <t>Mon, 30 Jan 2023 16:18:16 GMT</t>
-  </si>
-  <si>
-    <t>531c9293c8c2405f</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.30.4.4.1136da66df6e38de2757d6a7629a2e86af788530fdbf9ab9d744bb047447a2dd.14db3f2fcd^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>Non applicabile da programma dove il nome è un'informazione necessaria ai fini dell'accettazione. Modificato il dato da base dati per eseguire il test.</t>
   </si>
   <si>
@@ -626,15 +614,6 @@
     <t>Il programma non gestisce la terapia farmacologica alla dimissione.</t>
   </si>
   <si>
-    <t>La sezione Decorso_Ospedaliero viene inclusa nel CDA2 ma con tag &lt;text /&gt; vuoto, immagino sia per questo motivo che non venga generato l'errore atteso.</t>
-  </si>
-  <si>
-    <t>La sezione Condizioni_Paziente_Diagnosi_Dimissione viene inclusa nel CDA2 ma con tag &lt;text /&gt; vuoto, immagino sia per questo motivo che non venga generato l'errore atteso.</t>
-  </si>
-  <si>
-    <t>I tag streetAddressLine e houseNumber vengono inclusi nel CDA2 ma non valorizzati, immagino sia per questo motivo che non venga generato l'errore atteso.</t>
-  </si>
-  <si>
     <t>B.C.S. Biomedical Computering Systems s.r.l.</t>
   </si>
   <si>
@@ -659,9 +638,6 @@
     <t>Tue, 31 Jan 2023 12:38:34 GMT</t>
   </si>
   <si>
-    <t>viene visualizzato un errore parlante e la gestione del cda2 è demandata al back office per non bloccare l'operatività dell'utente</t>
-  </si>
-  <si>
     <t>Non è possibile da programma inserire un confidentialityCode pari a R, ma solo pari a N o a V.</t>
   </si>
   <si>
@@ -681,6 +657,66 @@
   </si>
   <si>
     <t>Il programma non gestisce le nformaizoni che andrebbero inserite nelle sezioni Inquadramento clinico iniziale, riscontri ed accertamenti significativi, terapia farmacologica alla dimissione, istruzioni di follow-up, retapia farmacologica effettuata durante il ricovero, procedure eseguite durante il ricovero</t>
+  </si>
+  <si>
+    <t>viene visualizzato il seguente messaggio di errore: "Errore nella validazione del CDA2: " + la descrizione dell'errore ritornata dal gateway.
+L'applicativo può essere configurato per comportarsi nei seguenti modi a seconda delle disposizioni regionali e delle scelte aziendali:
+1. L'errore è bloccante e il referto torna in coda di firma. Dopo che l'errore è stato corretto dal medico o dal personale amministrativo, il referto può essere firmato nuovamente e inviato al respoitory aziendale  che si occuperà dell'invio a FSE o al middelware regionale che invierà il documento al FSE.
+2. Il referto viene comunque firmato e inviato al repository aziendale per la consegna al paziente e la consultazione interna. Una volta corretto l'errore,  il medico può  generare e firmare un referto sostitutivo e archiviarlo su respoitory aziendale che si occuperà dell'invio a FSE o al middelware regionale che invierà il documento al FSE.</t>
+  </si>
+  <si>
+    <t>viene visualizzato il seguente messaggio di errore: "Errore nella validazione del CDA2: timeout nella chiamata al gateway FSE".
+L'applicativo può essere configurato per comportarsi nei seguenti modi a seconda delle disposizioni regionali e delle scelte aziendali:
+1. L'errore è bloccante e il referto torna in coda di firma. Il medico può ripetere la firma e nel caso abbia successo il documento viene archiviato su respoitory aziendale che si occuperà dell'invio a FSE o al middelware regionale che invierà il documento al FSE.
+2. Il referto viene comunque firmato e inviato al repository aziendale per la consegna al paziente e la consultazione interna. Il medico può successivamente  generare e firmare un referto sostitutivo e archiviarlo su respoitory aziendale che si occuperà dell'invio a FSE o al middelware regionale che invierà il documento al FSE.</t>
+  </si>
+  <si>
+    <t>Il medico è invitato dal programma a scegliere tra una delle opzioni di oscuramento configurate. Non è possibile quindi che venga inviato un valore errato a meno di errori di configurazione. In questo caso è il personale in backoffice che corregge la configurazione.</t>
+  </si>
+  <si>
+    <t>c8b5177bcac09933</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.30.4.4.4ada7b6b9b089372beb231d364fe0b9660699c68458bd4d94676ffdc031eb2a5.27be5a86a7^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>Fri, 31 Mar 2023 15:46:22 GMT</t>
+  </si>
+  <si>
+    <t>Non stante nel CDA2 machi la città di residenza, il Gateway non dà errore e valida correttamente il CDA2.
+Qualora il gateway rispondesse con un errore, 
+verrebbe visualizzato il seguente messaggio di errore: "Errore nella validazione del CDA2: " + la descrizione dell'errore ritornata dal gateway.
+L'applicativo può essere configurato per comportarsi nei seguenti modi a seconda delle disposizioni regionali e delle scelte aziendali:
+1. L'errore è bloccante e il referto torna in coda di firma. Dopo che l'errore è stato corretto dal medico o dal personale amministrativo, il referto può essere firmato nuovamente e inviato al respoitory aziendale  che si occuperà dell'invio a FSE o al middelware regionale che invierà il documento al FSE.
+2. Il referto viene comunque firmato e inviato al repository aziendale per la consegna al paziente e la consultazione interna. Una volta corretto l'errore,  il medico può  generare e firmare un referto sostitutivo e archiviarlo su respoitory aziendale che si occuperà dell'invio a FSE o al middelware regionale che invierà il documento al FSE.</t>
+  </si>
+  <si>
+    <t>Nonostante nel CDA2 machi il testo del decorso ospedaliero, il Gateway non genera un errore e valida il CDA correttamente.
+Qualora il gateway rispondesse con un errore, 
+verrebbe visualizzato il seguente messaggio di errore: "Errore nella validazione del CDA2: " + la descrizione dell'errore ritornata dal gateway.
+L'applicativo può essere configurato per comportarsi nei seguenti modi a seconda delle disposizioni regionali e delle scelte aziendali:
+1. L'errore è bloccante e il referto torna in coda di firma. Dopo che l'errore è stato corretto dal medico o dal personale amministrativo, il referto può essere firmato nuovamente e inviato al respoitory aziendale  che si occuperà dell'invio a FSE o al middelware regionale che invierà il documento al FSE.
+2. Il referto viene comunque firmato e inviato al repository aziendale per la consegna al paziente e la consultazione interna. Una volta corretto l'errore,  il medico può  generare e firmare un referto sostitutivo e archiviarlo su respoitory aziendale che si occuperà dell'invio a FSE o al middelware regionale che invierà il documento al FSE.</t>
+  </si>
+  <si>
+    <t>Nonostante nel CDA2 machi il testo delle condizioni del paziente alla diagnosi di dimissione, il Gateway non genera un errore e valida il CDA correttamente.
+Qualora il gateway rispondesse con un errore, 
+verrebbe visualizzato il seguente messaggio di errore: "Errore nella validazione del CDA2: " + la descrizione dell'errore ritornata dal gateway.
+L'applicativo può essere configurato per comportarsi nei seguenti modi a seconda delle disposizioni regionali e delle scelte aziendali:
+1. L'errore è bloccante e il referto torna in coda di firma. Dopo che l'errore è stato corretto dal medico o dal personale amministrativo, il referto può essere firmato nuovamente e inviato al respoitory aziendale  che si occuperà dell'invio a FSE o al middelware regionale che invierà il documento al FSE.
+2. Il referto viene comunque firmato e inviato al repository aziendale per la consegna al paziente e la consultazione interna. Una volta corretto l'errore,  il medico può  generare e firmare un referto sostitutivo e archiviarlo su respoitory aziendale che si occuperà dell'invio a FSE o al middelware regionale che invierà il documento al FSE.</t>
+  </si>
+  <si>
+    <t>subject_application_version:7.11.0.0</t>
+  </si>
+  <si>
+    <t>Il test non genera errore, probabilmente perchè Gateway dà errore solo se manca il tag &lt;city&gt; mentre in questo caso è presente ma vuoto in quanto il motore di generazione del CDA2 usato genera sempre i tag delle informazioni gestite da programma. Questo permette anche di capire se il dato è gestito ma non valorizzato( tag vuoto) o se non è gestito da programma (assenza del tag). La specifica CDA2 permette la presenza di tag vuoti che sono equivalenti all'omissione del tag.</t>
+  </si>
+  <si>
+    <t>Il test non genera errore, probabilmente perchè Il test non genera errore, probabilmente perchè Gateway dà errore solo se manca il tag &lt;text/&gt; della section Decorso_Ospedaliero che invece è presente ma vuoto in quanto il motore di generazione del CDA2 usato genera sempre i tag delle informazioni gestite da programma. Questo permette anche di capire se il dato è gestito ma non valorizzato( tag vuoto) o se non è gestito da programma (assenza del tag). La specifica CDA2 permette la presenza di tag vuoti che sono equivalenti all'omissione del tag.</t>
+  </si>
+  <si>
+    <t>Il test non genera errore, probabilmente perchè il Gateway dà errore solo se manca il tag &lt;text/&gt; nella sezione Condizioni_Paziente_Diagnosi_Dimissione che invece è presente ma vuoto in quanto il motore di generazione del CDA2 usato genera sempre i tag delle informazioni gestite da programma. Questo permette anche di capire se il dato è gestito ma non valorizzato( tag vuoto) o se non è gestito da programma (assenza del tag). La specifica CDA2 permette la presenza di tag vuoti che sono equivalenti all'omissione del tag.</t>
   </si>
 </sst>
 </file>
@@ -2613,11 +2649,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O873"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="E10" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" ySplit="9" topLeftCell="I16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="F25" sqref="F25"/>
+      <selection pane="bottomRight" activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2633,7 +2669,7 @@
     <col min="11" max="11" width="27.33203125" customWidth="1"/>
     <col min="12" max="12" width="33.33203125" customWidth="1"/>
     <col min="13" max="14" width="36.44140625" customWidth="1"/>
-    <col min="15" max="15" width="33.88671875" customWidth="1"/>
+    <col min="15" max="15" width="33.77734375" bestFit="1" customWidth="1"/>
     <col min="16" max="26" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2655,7 +2691,7 @@
       </c>
       <c r="B2" s="43"/>
       <c r="C2" s="44" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="D2" s="43"/>
       <c r="F2" s="7"/>
@@ -2675,7 +2711,7 @@
       </c>
       <c r="B3" s="46"/>
       <c r="C3" s="51" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="D3" s="43"/>
       <c r="F3" s="7"/>
@@ -2693,7 +2729,7 @@
       <c r="A4" s="47"/>
       <c r="B4" s="48"/>
       <c r="C4" s="51" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="D4" s="43"/>
       <c r="E4" s="2"/>
@@ -2712,7 +2748,7 @@
       <c r="A5" s="49"/>
       <c r="B5" s="50"/>
       <c r="C5" s="51" t="s">
-        <v>10</v>
+        <v>137</v>
       </c>
       <c r="D5" s="43"/>
       <c r="F5" s="7"/>
@@ -2770,49 +2806,49 @@
     </row>
     <row r="9" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="C9" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="D9" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="E9" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="F9" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="G9" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="12" t="s">
+      <c r="H9" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="H9" s="12" t="s">
+      <c r="I9" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="I9" s="12" t="s">
+      <c r="J9" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="J9" s="12" t="s">
+      <c r="K9" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="K9" s="12" t="s">
+      <c r="L9" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="L9" s="12" t="s">
+      <c r="M9" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="M9" s="12" t="s">
+      <c r="N9" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="N9" s="13" t="s">
+      <c r="O9" s="12" t="s">
         <v>24</v>
-      </c>
-      <c r="O9" s="12" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="130.19999999999999" thickBot="1" x14ac:dyDescent="0.35">
@@ -2820,35 +2856,35 @@
         <v>6</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="E10" s="16" t="s">
         <v>29</v>
-      </c>
-      <c r="E10" s="16" t="s">
-        <v>30</v>
       </c>
       <c r="F10" s="17">
         <v>45005</v>
       </c>
       <c r="G10" s="18" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="H10" s="18" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="I10" s="18" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="J10" s="19"/>
       <c r="K10" s="19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L10" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M10" s="19"/>
       <c r="N10" s="20"/>
@@ -2859,16 +2895,16 @@
         <v>7</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D11" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="16" t="s">
         <v>31</v>
-      </c>
-      <c r="E11" s="16" t="s">
-        <v>32</v>
       </c>
       <c r="F11" s="17"/>
       <c r="G11" s="18"/>
@@ -2876,11 +2912,11 @@
       <c r="I11" s="18"/>
       <c r="J11" s="19"/>
       <c r="K11" s="19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L11" s="19"/>
       <c r="M11" s="19" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="N11" s="20"/>
       <c r="O11" s="21"/>
@@ -2890,16 +2926,16 @@
         <v>8</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D12" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="16" t="s">
         <v>33</v>
-      </c>
-      <c r="E12" s="16" t="s">
-        <v>34</v>
       </c>
       <c r="F12" s="17"/>
       <c r="G12" s="37"/>
@@ -2907,11 +2943,11 @@
       <c r="I12" s="37"/>
       <c r="J12" s="19"/>
       <c r="K12" s="19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L12" s="19"/>
       <c r="M12" s="19" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="N12" s="20"/>
       <c r="O12" s="21"/>
@@ -2921,16 +2957,16 @@
         <v>9</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D13" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="16" t="s">
         <v>35</v>
-      </c>
-      <c r="E13" s="16" t="s">
-        <v>36</v>
       </c>
       <c r="F13" s="17"/>
       <c r="G13" s="37"/>
@@ -2938,222 +2974,224 @@
       <c r="I13" s="37"/>
       <c r="J13" s="19"/>
       <c r="K13" s="19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L13" s="19"/>
       <c r="M13" s="19" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="N13" s="20"/>
       <c r="O13" s="21"/>
     </row>
-    <row r="14" spans="1:15" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" ht="315.60000000000002" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="14">
         <v>29</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D14" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" s="16" t="s">
         <v>42</v>
-      </c>
-      <c r="E14" s="16" t="s">
-        <v>43</v>
       </c>
       <c r="F14" s="17">
         <v>44957</v>
       </c>
       <c r="G14" s="18" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="H14" s="18" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="I14" s="18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J14" s="19" t="s">
         <v>128</v>
       </c>
       <c r="K14" s="19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L14" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M14" s="19"/>
       <c r="N14" s="20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O14" s="21"/>
     </row>
-    <row r="15" spans="1:15" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" ht="292.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="14">
         <v>37</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D15" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" s="16" t="s">
         <v>44</v>
-      </c>
-      <c r="E15" s="16" t="s">
-        <v>45</v>
       </c>
       <c r="F15" s="17">
         <v>44957</v>
       </c>
       <c r="G15" s="18" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="H15" s="18" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="I15" s="18" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="J15" s="19" t="s">
         <v>128</v>
       </c>
       <c r="K15" s="19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L15" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M15" s="19"/>
       <c r="N15" s="20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O15" s="21"/>
     </row>
-    <row r="16" spans="1:15" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" ht="280.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="14">
         <v>45</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E16" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F16" s="17"/>
       <c r="G16" s="18"/>
       <c r="H16" s="18"/>
       <c r="I16" s="18"/>
       <c r="J16" s="19" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K16" s="19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L16" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M16" s="19"/>
       <c r="N16" s="20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O16" s="21"/>
     </row>
-    <row r="17" spans="1:15" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:15" ht="274.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="14">
         <v>63</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D17" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="E17" s="16" t="s">
         <v>48</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>49</v>
       </c>
       <c r="F17" s="17">
         <v>44956</v>
       </c>
       <c r="G17" s="37" t="s">
+        <v>89</v>
+      </c>
+      <c r="H17" s="37" t="s">
         <v>90</v>
       </c>
-      <c r="H17" s="37" t="s">
+      <c r="I17" s="37" t="s">
         <v>91</v>
-      </c>
-      <c r="I17" s="37" t="s">
-        <v>92</v>
       </c>
       <c r="J17" s="19" t="s">
         <v>128</v>
       </c>
       <c r="K17" s="19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L17" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M17" s="19"/>
       <c r="N17" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="O17" s="21"/>
-    </row>
-    <row r="18" spans="1:15" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+      <c r="O17" s="21" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="274.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="14">
         <v>64</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D18" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="E18" s="16" t="s">
         <v>50</v>
-      </c>
-      <c r="E18" s="16" t="s">
-        <v>51</v>
       </c>
       <c r="F18" s="17">
         <v>44956</v>
       </c>
       <c r="G18" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="H18" s="37" t="s">
         <v>93</v>
       </c>
-      <c r="H18" s="37" t="s">
+      <c r="I18" s="37" t="s">
         <v>94</v>
-      </c>
-      <c r="I18" s="37" t="s">
-        <v>95</v>
       </c>
       <c r="J18" s="19" t="s">
         <v>128</v>
       </c>
       <c r="K18" s="19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L18" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M18" s="19"/>
       <c r="N18" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="O18" s="38" t="s">
-        <v>96</v>
+        <v>40</v>
+      </c>
+      <c r="O18" s="21" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
@@ -3161,16 +3199,16 @@
         <v>65</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D19" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="E19" s="16" t="s">
         <v>52</v>
-      </c>
-      <c r="E19" s="16" t="s">
-        <v>53</v>
       </c>
       <c r="F19" s="17"/>
       <c r="G19" s="18"/>
@@ -3178,240 +3216,240 @@
       <c r="I19" s="18"/>
       <c r="J19" s="19"/>
       <c r="K19" s="19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L19" s="19"/>
       <c r="M19" s="39" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="N19" s="20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O19" s="21"/>
     </row>
-    <row r="20" spans="1:15" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:15" ht="298.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="14">
         <v>66</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D20" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="E20" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="E20" s="16" t="s">
-        <v>55</v>
-      </c>
       <c r="F20" s="17">
-        <v>44956</v>
-      </c>
-      <c r="G20" s="37" t="s">
-        <v>97</v>
-      </c>
-      <c r="H20" s="37" t="s">
-        <v>98</v>
-      </c>
-      <c r="I20" s="37" t="s">
-        <v>99</v>
+        <v>45016</v>
+      </c>
+      <c r="G20" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="H20" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="I20" s="18" t="s">
+        <v>132</v>
       </c>
       <c r="J20" s="19" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="K20" s="19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L20" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M20" s="19"/>
       <c r="N20" s="20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O20" s="21" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="274.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="14">
         <v>67</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D21" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="E21" s="16" t="s">
         <v>56</v>
-      </c>
-      <c r="E21" s="16" t="s">
-        <v>57</v>
       </c>
       <c r="F21" s="17">
         <v>44956</v>
       </c>
       <c r="G21" s="37" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="H21" s="37" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="I21" s="37" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="J21" s="19" t="s">
         <v>128</v>
       </c>
       <c r="K21" s="19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L21" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M21" s="19"/>
       <c r="N21" s="20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O21" s="38" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="274.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="14">
         <v>68</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D22" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="E22" s="16" t="s">
         <v>58</v>
-      </c>
-      <c r="E22" s="16" t="s">
-        <v>59</v>
       </c>
       <c r="F22" s="17">
         <v>44956</v>
       </c>
       <c r="G22" s="37" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="H22" s="37" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="I22" s="37" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="J22" s="19" t="s">
         <v>128</v>
       </c>
       <c r="K22" s="19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L22" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M22" s="19"/>
       <c r="N22" s="20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O22" s="38" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" ht="306" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="14">
         <v>69</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D23" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="E23" s="16" t="s">
         <v>60</v>
-      </c>
-      <c r="E23" s="16" t="s">
-        <v>61</v>
       </c>
       <c r="F23" s="17">
         <v>44956</v>
       </c>
       <c r="G23" s="37" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="H23" s="37" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="I23" s="37" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="J23" s="19" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="K23" s="19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L23" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M23" s="19"/>
       <c r="N23" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="O23" s="38" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+      <c r="O23" s="21" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" ht="346.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="14">
         <v>70</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D24" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="E24" s="16" t="s">
         <v>62</v>
-      </c>
-      <c r="E24" s="16" t="s">
-        <v>63</v>
       </c>
       <c r="F24" s="17">
         <v>44956</v>
       </c>
       <c r="G24" s="37" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="H24" s="37" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="I24" s="37" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="J24" s="19" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="K24" s="19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L24" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M24" s="19"/>
       <c r="N24" s="20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O24" s="21" t="s">
-        <v>117</v>
+        <v>139</v>
       </c>
     </row>
     <row r="25" spans="1:15" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
@@ -3419,16 +3457,16 @@
         <v>71</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D25" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="E25" s="16" t="s">
         <v>64</v>
-      </c>
-      <c r="E25" s="16" t="s">
-        <v>65</v>
       </c>
       <c r="F25" s="17"/>
       <c r="G25" s="18"/>
@@ -3436,14 +3474,14 @@
       <c r="I25" s="18"/>
       <c r="J25" s="19"/>
       <c r="K25" s="19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L25" s="19"/>
       <c r="M25" s="19" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="N25" s="20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O25" s="38"/>
     </row>
@@ -3452,16 +3490,16 @@
         <v>72</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D26" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="E26" s="16" t="s">
         <v>66</v>
-      </c>
-      <c r="E26" s="16" t="s">
-        <v>67</v>
       </c>
       <c r="F26" s="17"/>
       <c r="G26" s="18"/>
@@ -3469,14 +3507,14 @@
       <c r="I26" s="18"/>
       <c r="J26" s="19"/>
       <c r="K26" s="19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L26" s="19"/>
       <c r="M26" s="19" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="N26" s="20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O26" s="38"/>
     </row>
@@ -3485,16 +3523,16 @@
         <v>73</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D27" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="E27" s="16" t="s">
         <v>68</v>
-      </c>
-      <c r="E27" s="16" t="s">
-        <v>69</v>
       </c>
       <c r="F27" s="17"/>
       <c r="G27" s="18"/>
@@ -3502,14 +3540,14 @@
       <c r="I27" s="18"/>
       <c r="J27" s="19"/>
       <c r="K27" s="19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L27" s="19"/>
       <c r="M27" s="19" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="N27" s="20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O27" s="38"/>
     </row>
@@ -3518,16 +3556,16 @@
         <v>74</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D28" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="E28" s="16" t="s">
         <v>70</v>
-      </c>
-      <c r="E28" s="16" t="s">
-        <v>71</v>
       </c>
       <c r="F28" s="17"/>
       <c r="G28" s="18"/>
@@ -3535,14 +3573,14 @@
       <c r="I28" s="18"/>
       <c r="J28" s="19"/>
       <c r="K28" s="19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L28" s="19"/>
       <c r="M28" s="19" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="N28" s="20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O28" s="38"/>
     </row>
@@ -13741,100 +13779,100 @@
   <sheetData>
     <row r="1" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="22" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C1" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1" s="24" t="s">
         <v>72</v>
-      </c>
-      <c r="D1" s="24" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B2" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="D2" s="28" t="s">
         <v>75</v>
-      </c>
-      <c r="D2" s="28" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C3" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="D3" s="28" t="s">
         <v>77</v>
-      </c>
-      <c r="D3" s="28" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="29" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B4" s="30" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C4" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="D4" s="32" t="s">
         <v>79</v>
-      </c>
-      <c r="D4" s="32" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B5" s="30" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C5" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="D5" s="28" t="s">
         <v>81</v>
-      </c>
-      <c r="D5" s="28" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="29" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B6" s="30" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C6" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="D6" s="32" t="s">
         <v>83</v>
-      </c>
-      <c r="D6" s="32" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="33" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B7" s="34" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C7" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="D7" s="32" t="s">
         <v>85</v>
-      </c>
-      <c r="D7" s="32" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -14849,26 +14887,26 @@
   <sheetData>
     <row r="1" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="36" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B1" s="36" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="36" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B2" s="36" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3" s="36" t="s">
         <v>88</v>
-      </c>
-      <c r="B3" s="36" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
